--- a/Proyecto/PRIMERA ENTREGA DE PROYECTO/Assessment_checklist_first_submission.xlsx
+++ b/Proyecto/PRIMERA ENTREGA DE PROYECTO/Assessment_checklist_first_submission.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saul_\OneDrive - Universidad Autonoma de Yucatan\PRIMER SEMESTRE\FUNDAMENTOS\PROYECTO EQUIPO 4\PROYECTO-EQUIPO-4\Proyecto\PRIMERA ENTREGA DE PROYECTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumnosuady-my.sharepoint.com/personal/a14214854_alumnos_uady_mx/Documents/PRIMER SEMESTRE/FUNDAMENTOS/PROYECTO EQUIPO 4/PROYECTO-EQUIPO-4/Proyecto/PRIMERA ENTREGA DE PROYECTO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9DFCDE-A3B0-492A-BC70-C90AB2B5C42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{EB9DFCDE-A3B0-492A-BC70-C90AB2B5C42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{234F5109-1459-44D9-9990-360E772DD5F8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DBDBD91F-58B3-7D45-AEAB-8508DE984923}"/>
   </bookViews>
@@ -431,7 +431,7 @@
     <t>Software Requirements Specification</t>
   </si>
   <si>
-    <t>EQUIPO-4/Proyecto/PRIMERA ENTREGA DE PROYECTO/Entrega1.md at main · SAUL-CASANOVA/EQUIPO-4</t>
+    <t>https://github.com/SAUL-CASANOVA/EQUIPO-4.git</t>
   </si>
 </sst>
 </file>
@@ -1099,6 +1099,18 @@
     <xf numFmtId="0" fontId="17" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1116,18 +1128,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1532,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A485DE-1598-634A-98A3-DB5E41A97E08}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1547,21 +1547,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
       <c r="H1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
       <c r="H2" s="35">
         <v>0</v>
       </c>
@@ -1576,10 +1576,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
       <c r="H3" s="37" t="s">
         <v>1</v>
       </c>
@@ -1594,10 +1594,10 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H5" s="13" t="s">
@@ -1626,7 +1626,7 @@
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:11" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="61" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1635,34 +1635,34 @@
       <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="63" t="s">
+      <c r="F7" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="64"/>
+      <c r="G7" s="58"/>
       <c r="H7" s="41"/>
     </row>
     <row r="8" spans="1:11" ht="63.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="57"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="63"/>
-      <c r="G8" s="64"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="58"/>
       <c r="H8" s="40"/>
     </row>
     <row r="9" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="57"/>
+      <c r="B9" s="61"/>
       <c r="C9" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="63"/>
-      <c r="G9" s="64"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="58"/>
       <c r="H9" s="41"/>
       <c r="I9" s="43"/>
     </row>
@@ -1670,7 +1670,7 @@
       <c r="H10" s="42"/>
     </row>
     <row r="11" spans="1:11" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="61" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -1679,51 +1679,51 @@
       <c r="D11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="65" t="s">
+      <c r="F11" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="66"/>
+      <c r="G11" s="60"/>
       <c r="H11" s="41"/>
     </row>
     <row r="12" spans="1:11" ht="53.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="57"/>
+      <c r="B12" s="61"/>
       <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="65"/>
-      <c r="G12" s="66"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="60"/>
       <c r="H12" s="40"/>
     </row>
     <row r="13" spans="1:11" ht="54.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="57"/>
+      <c r="B13" s="61"/>
       <c r="C13" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="65"/>
-      <c r="G13" s="66"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="60"/>
       <c r="H13" s="41"/>
     </row>
     <row r="14" spans="1:11" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="57"/>
+      <c r="B14" s="61"/>
       <c r="C14" s="14" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="65"/>
-      <c r="G14" s="66"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="60"/>
       <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:11" ht="81.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="61" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="14" t="s">
@@ -1732,51 +1732,51 @@
       <c r="D16" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="65" t="s">
+      <c r="F16" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="66"/>
+      <c r="G16" s="60"/>
       <c r="H16" s="41"/>
     </row>
     <row r="17" spans="2:8" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="57"/>
+      <c r="B17" s="61"/>
       <c r="C17" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="65"/>
-      <c r="G17" s="66"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="60"/>
       <c r="H17" s="40"/>
     </row>
     <row r="18" spans="2:8" ht="81.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="57"/>
+      <c r="B18" s="61"/>
       <c r="C18" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="65"/>
-      <c r="G18" s="66"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="60"/>
       <c r="H18" s="41"/>
     </row>
     <row r="19" spans="2:8" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="57"/>
+      <c r="B19" s="61"/>
       <c r="C19" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="65"/>
-      <c r="G19" s="66"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="60"/>
       <c r="H19" s="41"/>
     </row>
     <row r="20" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:8" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="64" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="25" t="s">
@@ -1789,7 +1789,7 @@
       <c r="H21" s="41"/>
     </row>
     <row r="22" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="60"/>
+      <c r="B22" s="64"/>
       <c r="C22" s="26" t="s">
         <v>38</v>
       </c>
@@ -1800,7 +1800,7 @@
       <c r="H22" s="40"/>
     </row>
     <row r="23" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="60"/>
+      <c r="B23" s="64"/>
       <c r="C23" s="19" t="s">
         <v>40</v>
       </c>
@@ -1810,8 +1810,8 @@
       <c r="F23" s="50"/>
       <c r="H23" s="41"/>
     </row>
-    <row r="25" spans="2:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="57" t="s">
+    <row r="25" spans="2:8" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="61" t="s">
         <v>42</v>
       </c>
       <c r="C25" s="21" t="s">
@@ -1820,22 +1820,22 @@
       <c r="D25" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="65" t="s">
+      <c r="F25" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="G25" s="66"/>
+      <c r="G25" s="60"/>
       <c r="H25" s="41"/>
     </row>
     <row r="26" spans="2:8" ht="36" x14ac:dyDescent="0.25">
-      <c r="B26" s="57"/>
+      <c r="B26" s="61"/>
       <c r="C26" s="23" t="s">
         <v>45</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="65"/>
-      <c r="G26" s="66"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="60"/>
       <c r="H26" s="40"/>
     </row>
     <row r="28" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1891,22 +1891,22 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B11:B14"/>
     <mergeCell ref="F7:G9"/>
     <mergeCell ref="F11:G14"/>
     <mergeCell ref="F16:G19"/>
     <mergeCell ref="F25:G26"/>
     <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B11:B14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F7" r:id="rId1" display="https://alumnosuady-my.sharepoint.com/:b:/g/personal/a14214854_alumnos_uady_mx/Eejs-R9sYD9OodYL-0oZxokB-6L7dKWmTE4Gr8C6Glq49Q?e=24qPSJ" xr:uid="{DCE44FA2-96F5-4D20-B1F6-A308ABEA5928}"/>
     <hyperlink ref="F11" r:id="rId2" display="https://alumnosuady-my.sharepoint.com/:b:/g/personal/a14214854_alumnos_uady_mx/Eejs-R9sYD9OodYL-0oZxokB-6L7dKWmTE4Gr8C6Glq49Q?e=24qPSJ" xr:uid="{0BA3928A-FD13-4A33-912F-B6C63ED0CB38}"/>
-    <hyperlink ref="F16" r:id="rId3" display="https://github.com/SAUL-CASANOVA/EQUIPO-4/blob/main/Proyecto/PRIMERA ENTREGA DE PROYECTO/Entrega1.md" xr:uid="{90CFAF92-0D9A-484D-AE35-6FD4DB930CE0}"/>
-    <hyperlink ref="F25" r:id="rId4" display="https://github.com/SAUL-CASANOVA/EQUIPO-4/blob/main/Proyecto/PRIMERA ENTREGA DE PROYECTO/Entrega1.md" xr:uid="{575A18D8-CAA3-437F-9935-BEE88CDAC0A1}"/>
+    <hyperlink ref="F16" r:id="rId3" xr:uid="{F3DB63E0-ED6C-4DCD-80B4-EF57032AAEBB}"/>
+    <hyperlink ref="F25" r:id="rId4" xr:uid="{30C5CDAB-0D8A-4A50-BD50-18309E741136}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId5"/>
@@ -1994,84 +1994,84 @@
       </c>
     </row>
     <row r="13" spans="2:7" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2089,6 +2089,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CC989ECCC8B7AB4EA23CFB69585B4A70" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b00a8df2ef6ffd0058dbd5627f16b0d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="188a5053-cf46-4829-a43d-8f4e43557bfc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bbf2a63b079a4d402b831b5b995ad565" ns2:_="">
     <xsd:import namespace="188a5053-cf46-4829-a43d-8f4e43557bfc"/>
@@ -2232,22 +2247,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68B30B96-39C3-410F-913F-EE6D5F8575AA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{980CF255-7841-4C77-A871-441DA9C72796}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E98E8C69-830C-4426-84F5-BDA7C91AEDF8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2263,21 +2280,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{980CF255-7841-4C77-A871-441DA9C72796}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68B30B96-39C3-410F-913F-EE6D5F8575AA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Proyecto/PRIMERA ENTREGA DE PROYECTO/Assessment_checklist_first_submission.xlsx
+++ b/Proyecto/PRIMERA ENTREGA DE PROYECTO/Assessment_checklist_first_submission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumnosuady-my.sharepoint.com/personal/a14214854_alumnos_uady_mx/Documents/PRIMER SEMESTRE/FUNDAMENTOS/PROYECTO EQUIPO 4/PROYECTO-EQUIPO-4/Proyecto/PRIMERA ENTREGA DE PROYECTO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{EB9DFCDE-A3B0-492A-BC70-C90AB2B5C42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{234F5109-1459-44D9-9990-360E772DD5F8}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{EB9DFCDE-A3B0-492A-BC70-C90AB2B5C42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63DD670F-8309-436F-8B64-4295F88405B6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DBDBD91F-58B3-7D45-AEAB-8508DE984923}"/>
   </bookViews>
@@ -1099,6 +1099,18 @@
     <xf numFmtId="0" fontId="17" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1109,18 +1121,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1231,6 +1231,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1533,7 +1537,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1547,21 +1551,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
       <c r="H1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
       <c r="H2" s="35">
         <v>0</v>
       </c>
@@ -1576,10 +1580,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
       <c r="H3" s="37" t="s">
         <v>1</v>
       </c>
@@ -1594,10 +1598,10 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H5" s="13" t="s">
@@ -1626,7 +1630,7 @@
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:11" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="59" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1635,34 +1639,34 @@
       <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="F7" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="58"/>
+      <c r="G7" s="62"/>
       <c r="H7" s="41"/>
     </row>
     <row r="8" spans="1:11" ht="63.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="61"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="57"/>
-      <c r="G8" s="58"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="62"/>
       <c r="H8" s="40"/>
     </row>
     <row r="9" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="61"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="57"/>
-      <c r="G9" s="58"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
       <c r="H9" s="41"/>
       <c r="I9" s="43"/>
     </row>
@@ -1670,7 +1674,7 @@
       <c r="H10" s="42"/>
     </row>
     <row r="11" spans="1:11" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="59" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -1679,51 +1683,51 @@
       <c r="D11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="59" t="s">
+      <c r="F11" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="60"/>
+      <c r="G11" s="64"/>
       <c r="H11" s="41"/>
     </row>
     <row r="12" spans="1:11" ht="53.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="61"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="59"/>
-      <c r="G12" s="60"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="64"/>
       <c r="H12" s="40"/>
     </row>
     <row r="13" spans="1:11" ht="54.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="61"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="59"/>
-      <c r="G13" s="60"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="64"/>
       <c r="H13" s="41"/>
     </row>
     <row r="14" spans="1:11" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="61"/>
+      <c r="B14" s="59"/>
       <c r="C14" s="14" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="59"/>
-      <c r="G14" s="60"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="64"/>
       <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:11" ht="81.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="59" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="14" t="s">
@@ -1732,51 +1736,51 @@
       <c r="D16" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="59" t="s">
+      <c r="F16" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="60"/>
+      <c r="G16" s="64"/>
       <c r="H16" s="41"/>
     </row>
     <row r="17" spans="2:8" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="61"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="59"/>
-      <c r="G17" s="60"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="64"/>
       <c r="H17" s="40"/>
     </row>
     <row r="18" spans="2:8" ht="81.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="61"/>
+      <c r="B18" s="59"/>
       <c r="C18" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="59"/>
-      <c r="G18" s="60"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="64"/>
       <c r="H18" s="41"/>
     </row>
     <row r="19" spans="2:8" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="61"/>
+      <c r="B19" s="59"/>
       <c r="C19" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="59"/>
-      <c r="G19" s="60"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="64"/>
       <c r="H19" s="41"/>
     </row>
     <row r="20" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:8" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="60" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="25" t="s">
@@ -1789,7 +1793,7 @@
       <c r="H21" s="41"/>
     </row>
     <row r="22" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="64"/>
+      <c r="B22" s="60"/>
       <c r="C22" s="26" t="s">
         <v>38</v>
       </c>
@@ -1800,7 +1804,7 @@
       <c r="H22" s="40"/>
     </row>
     <row r="23" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="64"/>
+      <c r="B23" s="60"/>
       <c r="C23" s="19" t="s">
         <v>40</v>
       </c>
@@ -1811,7 +1815,7 @@
       <c r="H23" s="41"/>
     </row>
     <row r="25" spans="2:8" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="59" t="s">
         <v>42</v>
       </c>
       <c r="C25" s="21" t="s">
@@ -1820,22 +1824,22 @@
       <c r="D25" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="59" t="s">
+      <c r="F25" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="G25" s="60"/>
+      <c r="G25" s="64"/>
       <c r="H25" s="41"/>
     </row>
     <row r="26" spans="2:8" ht="36" x14ac:dyDescent="0.25">
-      <c r="B26" s="61"/>
+      <c r="B26" s="59"/>
       <c r="C26" s="23" t="s">
         <v>45</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="59"/>
-      <c r="G26" s="60"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="64"/>
       <c r="H26" s="40"/>
     </row>
     <row r="28" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1891,16 +1895,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F7:G9"/>
+    <mergeCell ref="F11:G14"/>
+    <mergeCell ref="F16:G19"/>
+    <mergeCell ref="F25:G26"/>
+    <mergeCell ref="B25:B26"/>
     <mergeCell ref="A1:D4"/>
     <mergeCell ref="B16:B19"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="B11:B14"/>
-    <mergeCell ref="F7:G9"/>
-    <mergeCell ref="F11:G14"/>
-    <mergeCell ref="F16:G19"/>
-    <mergeCell ref="F25:G26"/>
-    <mergeCell ref="B25:B26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F7" r:id="rId1" display="https://alumnosuady-my.sharepoint.com/:b:/g/personal/a14214854_alumnos_uady_mx/Eejs-R9sYD9OodYL-0oZxokB-6L7dKWmTE4Gr8C6Glq49Q?e=24qPSJ" xr:uid="{DCE44FA2-96F5-4D20-B1F6-A308ABEA5928}"/>
@@ -2089,21 +2093,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CC989ECCC8B7AB4EA23CFB69585B4A70" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b00a8df2ef6ffd0058dbd5627f16b0d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="188a5053-cf46-4829-a43d-8f4e43557bfc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bbf2a63b079a4d402b831b5b995ad565" ns2:_="">
     <xsd:import namespace="188a5053-cf46-4829-a43d-8f4e43557bfc"/>
@@ -2247,24 +2236,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68B30B96-39C3-410F-913F-EE6D5F8575AA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{980CF255-7841-4C77-A871-441DA9C72796}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E98E8C69-830C-4426-84F5-BDA7C91AEDF8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2280,4 +2267,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{980CF255-7841-4C77-A871-441DA9C72796}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68B30B96-39C3-410F-913F-EE6D5F8575AA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Proyecto/PRIMERA ENTREGA DE PROYECTO/Assessment_checklist_first_submission.xlsx
+++ b/Proyecto/PRIMERA ENTREGA DE PROYECTO/Assessment_checklist_first_submission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumnosuady-my.sharepoint.com/personal/a14214854_alumnos_uady_mx/Documents/PRIMER SEMESTRE/FUNDAMENTOS/PROYECTO EQUIPO 4/PROYECTO-EQUIPO-4/Proyecto/PRIMERA ENTREGA DE PROYECTO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{EB9DFCDE-A3B0-492A-BC70-C90AB2B5C42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63DD670F-8309-436F-8B64-4295F88405B6}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{EB9DFCDE-A3B0-492A-BC70-C90AB2B5C42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C9B7DD8-FAEA-4FEA-8E1E-150839EC4908}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DBDBD91F-58B3-7D45-AEAB-8508DE984923}"/>
   </bookViews>
@@ -1099,28 +1099,28 @@
     <xf numFmtId="0" fontId="17" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1536,8 +1536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A485DE-1598-634A-98A3-DB5E41A97E08}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1551,21 +1551,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
       <c r="H1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
       <c r="H2" s="35">
         <v>0</v>
       </c>
@@ -1580,10 +1580,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
       <c r="H3" s="37" t="s">
         <v>1</v>
       </c>
@@ -1598,10 +1598,10 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H5" s="13" t="s">
@@ -1630,7 +1630,7 @@
       <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:11" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="61" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1639,34 +1639,34 @@
       <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="61" t="s">
+      <c r="F7" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="62"/>
+      <c r="G7" s="58"/>
       <c r="H7" s="41"/>
     </row>
     <row r="8" spans="1:11" ht="63.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="59"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="61"/>
-      <c r="G8" s="62"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="58"/>
       <c r="H8" s="40"/>
     </row>
     <row r="9" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="59"/>
+      <c r="B9" s="61"/>
       <c r="C9" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="61"/>
-      <c r="G9" s="62"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="58"/>
       <c r="H9" s="41"/>
       <c r="I9" s="43"/>
     </row>
@@ -1674,7 +1674,7 @@
       <c r="H10" s="42"/>
     </row>
     <row r="11" spans="1:11" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="61" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -1683,51 +1683,51 @@
       <c r="D11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="63" t="s">
+      <c r="F11" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="64"/>
+      <c r="G11" s="60"/>
       <c r="H11" s="41"/>
     </row>
     <row r="12" spans="1:11" ht="53.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="59"/>
+      <c r="B12" s="61"/>
       <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="63"/>
-      <c r="G12" s="64"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="60"/>
       <c r="H12" s="40"/>
     </row>
     <row r="13" spans="1:11" ht="54.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="59"/>
+      <c r="B13" s="61"/>
       <c r="C13" s="14" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="63"/>
-      <c r="G13" s="64"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="60"/>
       <c r="H13" s="41"/>
     </row>
     <row r="14" spans="1:11" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="59"/>
+      <c r="B14" s="61"/>
       <c r="C14" s="14" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="63"/>
-      <c r="G14" s="64"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="60"/>
       <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:11" ht="81.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="61" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="14" t="s">
@@ -1736,51 +1736,51 @@
       <c r="D16" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="63" t="s">
+      <c r="F16" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="64"/>
+      <c r="G16" s="60"/>
       <c r="H16" s="41"/>
     </row>
     <row r="17" spans="2:8" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="59"/>
+      <c r="B17" s="61"/>
       <c r="C17" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="63"/>
-      <c r="G17" s="64"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="60"/>
       <c r="H17" s="40"/>
     </row>
     <row r="18" spans="2:8" ht="81.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="59"/>
+      <c r="B18" s="61"/>
       <c r="C18" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="63"/>
-      <c r="G18" s="64"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="60"/>
       <c r="H18" s="41"/>
     </row>
     <row r="19" spans="2:8" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="59"/>
+      <c r="B19" s="61"/>
       <c r="C19" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="63"/>
-      <c r="G19" s="64"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="60"/>
       <c r="H19" s="41"/>
     </row>
     <row r="20" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:8" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="64" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="25" t="s">
@@ -1793,7 +1793,7 @@
       <c r="H21" s="41"/>
     </row>
     <row r="22" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="60"/>
+      <c r="B22" s="64"/>
       <c r="C22" s="26" t="s">
         <v>38</v>
       </c>
@@ -1804,7 +1804,7 @@
       <c r="H22" s="40"/>
     </row>
     <row r="23" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="60"/>
+      <c r="B23" s="64"/>
       <c r="C23" s="19" t="s">
         <v>40</v>
       </c>
@@ -1815,7 +1815,7 @@
       <c r="H23" s="41"/>
     </row>
     <row r="25" spans="2:8" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="61" t="s">
         <v>42</v>
       </c>
       <c r="C25" s="21" t="s">
@@ -1824,22 +1824,22 @@
       <c r="D25" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="63" t="s">
+      <c r="F25" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="G25" s="64"/>
+      <c r="G25" s="60"/>
       <c r="H25" s="41"/>
     </row>
     <row r="26" spans="2:8" ht="36" x14ac:dyDescent="0.25">
-      <c r="B26" s="59"/>
+      <c r="B26" s="61"/>
       <c r="C26" s="23" t="s">
         <v>45</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="63"/>
-      <c r="G26" s="64"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="60"/>
       <c r="H26" s="40"/>
     </row>
     <row r="28" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1895,25 +1895,24 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B11:B14"/>
     <mergeCell ref="F7:G9"/>
     <mergeCell ref="F11:G14"/>
     <mergeCell ref="F16:G19"/>
     <mergeCell ref="F25:G26"/>
     <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B11:B14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F7" r:id="rId1" display="https://alumnosuady-my.sharepoint.com/:b:/g/personal/a14214854_alumnos_uady_mx/Eejs-R9sYD9OodYL-0oZxokB-6L7dKWmTE4Gr8C6Glq49Q?e=24qPSJ" xr:uid="{DCE44FA2-96F5-4D20-B1F6-A308ABEA5928}"/>
     <hyperlink ref="F11" r:id="rId2" display="https://alumnosuady-my.sharepoint.com/:b:/g/personal/a14214854_alumnos_uady_mx/Eejs-R9sYD9OodYL-0oZxokB-6L7dKWmTE4Gr8C6Glq49Q?e=24qPSJ" xr:uid="{0BA3928A-FD13-4A33-912F-B6C63ED0CB38}"/>
-    <hyperlink ref="F16" r:id="rId3" xr:uid="{F3DB63E0-ED6C-4DCD-80B4-EF57032AAEBB}"/>
-    <hyperlink ref="F25" r:id="rId4" xr:uid="{30C5CDAB-0D8A-4A50-BD50-18309E741136}"/>
+    <hyperlink ref="F25" r:id="rId3" xr:uid="{30C5CDAB-0D8A-4A50-BD50-18309E741136}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2093,6 +2092,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CC989ECCC8B7AB4EA23CFB69585B4A70" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b00a8df2ef6ffd0058dbd5627f16b0d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="188a5053-cf46-4829-a43d-8f4e43557bfc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bbf2a63b079a4d402b831b5b995ad565" ns2:_="">
     <xsd:import namespace="188a5053-cf46-4829-a43d-8f4e43557bfc"/>
@@ -2236,22 +2250,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68B30B96-39C3-410F-913F-EE6D5F8575AA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{980CF255-7841-4C77-A871-441DA9C72796}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E98E8C69-830C-4426-84F5-BDA7C91AEDF8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2267,21 +2283,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{980CF255-7841-4C77-A871-441DA9C72796}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68B30B96-39C3-410F-913F-EE6D5F8575AA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>